--- a/data/case1/5/Plm2_11.xlsx
+++ b/data/case1/5/Plm2_11.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.17302840171176115</v>
+        <v>-0.17532746519896136</v>
       </c>
       <c r="B1" s="0">
-        <v>0.17249008867295856</v>
+        <v>0.17478542411376452</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.088006506325179146</v>
+        <v>-0.090409751280960293</v>
       </c>
       <c r="B2" s="0">
-        <v>0.086679095189273525</v>
+        <v>0.089055210751265435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.016262159320241665</v>
+        <v>0.013885254835461325</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.016705178995380265</v>
+        <v>-0.014333616831073925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19329482043567836</v>
+        <v>-0.1956663819990041</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19198784984381234</v>
+        <v>0.19432983705323537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18598785005302254</v>
+        <v>-0.18832983748679588</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18333679906558764</v>
+        <v>0.18561520809508281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.082399119717484037</v>
+        <v>-0.084680217291768667</v>
       </c>
       <c r="B6" s="0">
-        <v>0.082307708301312843</v>
+        <v>0.084583332312029746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.062307708558151376</v>
+        <v>-0.064583332843980656</v>
       </c>
       <c r="B7" s="0">
-        <v>0.062115355433542518</v>
+        <v>0.064376021294940244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.015327875454227424</v>
+        <v>-0.016236839274888837</v>
       </c>
       <c r="B8" s="0">
-        <v>0.015308118058939613</v>
+        <v>0.016215962802120565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0093081182803347318</v>
+        <v>-0.010215963261382299</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0092961048464461626</v>
+        <v>0.010203801016814396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0032961050682871473</v>
+        <v>-0.0042038014771890175</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0032962458512173498</v>
+        <v>0.0042046052709068249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0012037539309766032</v>
+        <v>0.00029539427706737342</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0012080348721994483</v>
+        <v>-0.0002977943006641226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0072080346502900738</v>
+        <v>0.0062977938402046796</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.00724441193135128</v>
+        <v>-0.0063303314191403004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.013244411709862902</v>
+        <v>0.012330330959453129</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.013267096935440037</v>
+        <v>-0.0123508583852594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.025267096697846547</v>
+        <v>0.024350857892411426</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.025325918212071308</v>
+        <v>-0.024405892032828724</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052007288809627</v>
+        <v>-0.02105167182947465</v>
       </c>
       <c r="B15" s="0">
-        <v>0.02102710353030357</v>
+        <v>0.021026993404406724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027103751501958</v>
+        <v>-0.015026993863574312</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004546519867823</v>
+        <v>0.015004324153656157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090045467419690439</v>
+        <v>-0.0090043246147333278</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999997694834022</v>
+        <v>0.0089999995215999107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.074483582562631767</v>
+        <v>-0.074375673277319976</v>
       </c>
       <c r="B18" s="0">
-        <v>0.074391512655925141</v>
+        <v>0.074285296897674158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097273132632882</v>
+        <v>-0.027096920379364509</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027014094442907144</v>
+        <v>0.02701371667370589</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014094657289093</v>
+        <v>-0.018013717117465688</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004337621661648</v>
+        <v>0.018004305484389249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043378362949511</v>
+        <v>-0.0090043059287117089</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999997851588631</v>
+        <v>0.0089999995552707546</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093941254723754142</v>
+        <v>-0.093940466030350223</v>
       </c>
       <c r="B22" s="0">
-        <v>0.09363001355233358</v>
+        <v>0.093629808500903522</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084630013768424384</v>
+        <v>-0.08462980894831329</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126022134629608</v>
+        <v>0.084125876212950423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126022444637812</v>
+        <v>-0.042125876853677191</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999688363765</v>
+        <v>0.041999999355874174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094937679565802569</v>
+        <v>-0.094934991254760348</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094690934719391606</v>
+        <v>0.094690075668211193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088690934938057353</v>
+        <v>-0.088690076121608286</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088373944274977134</v>
+        <v>0.088374217722403614</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082373944494785523</v>
+        <v>-0.082374218178177916</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081293554328465856</v>
+        <v>0.081292939728166314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075293554553112152</v>
+        <v>-0.075292940194056079</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074544829701297388</v>
+        <v>0.074543736287114193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062544829945645475</v>
+        <v>-0.062543736793609028</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062173057121400532</v>
+        <v>0.062172318557200512</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042173057389202739</v>
+        <v>-0.042172319112065981</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020826870021732</v>
+        <v>0.042020047335702415</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027020827126420954</v>
+        <v>-0.027020047867274855</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027001005201661599</v>
+        <v>0.027000806859939885</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060010054748929065</v>
+        <v>-0.0060008074261448385</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999997677255834</v>
+        <v>0.0059999995180826105</v>
       </c>
     </row>
   </sheetData>
